--- a/recommendation&keyword search/demo_attraction.xlsx
+++ b/recommendation&keyword search/demo_attraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\麦佩华\CS5224 Cloud Computing\Assignments\final project\CS5224-project-frontend\recommendation&amp;keyword search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A3AF7-D0E1-46EB-8782-CA43783E5FE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72CFBD3-2912-4787-A645-EC4C74E4FEA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>National Museum</t>
   </si>
   <si>
-    <t>COM3, NUS</t>
-  </si>
-  <si>
     <t>park</t>
   </si>
   <si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>mall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM1, NUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +579,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -606,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -614,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1.294906429535875</v>
@@ -643,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,10 +690,10 @@
         <v>1.5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,10 +736,10 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,10 +759,10 @@
         <v>1.5</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1.415611</v>
@@ -781,10 +782,10 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1.3602082</v>
@@ -804,10 +805,10 @@
         <v>1.5</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -815,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1.3600726999999999</v>
@@ -827,10 +828,10 @@
         <v>1.5</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1.3789469999999999</v>
@@ -850,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
